--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.26313166666666</v>
+        <v>13.54342266666667</v>
       </c>
       <c r="H2">
-        <v>42.78939499999999</v>
+        <v>40.630268</v>
       </c>
       <c r="I2">
-        <v>0.5507743869941781</v>
+        <v>0.5167929048707047</v>
       </c>
       <c r="J2">
-        <v>0.550774386994178</v>
+        <v>0.5167929048707047</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N2">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O2">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P2">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q2">
-        <v>186.8546365912661</v>
+        <v>265.4573639003098</v>
       </c>
       <c r="R2">
-        <v>1681.691729321395</v>
+        <v>2389.116275102788</v>
       </c>
       <c r="S2">
-        <v>0.03628484374822332</v>
+        <v>0.04950687609038982</v>
       </c>
       <c r="T2">
-        <v>0.0362848437482233</v>
+        <v>0.04950687609038982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.26313166666666</v>
+        <v>13.54342266666667</v>
       </c>
       <c r="H3">
-        <v>42.78939499999999</v>
+        <v>40.630268</v>
       </c>
       <c r="I3">
-        <v>0.5507743869941781</v>
+        <v>0.5167929048707047</v>
       </c>
       <c r="J3">
-        <v>0.550774386994178</v>
+        <v>0.5167929048707047</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N3">
         <v>123.520313</v>
       </c>
       <c r="O3">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P3">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q3">
-        <v>587.2621626089593</v>
+        <v>557.6292689593205</v>
       </c>
       <c r="R3">
-        <v>5285.359463480633</v>
+        <v>5018.663420633885</v>
       </c>
       <c r="S3">
-        <v>0.1140389995037769</v>
+        <v>0.1039959212926981</v>
       </c>
       <c r="T3">
-        <v>0.1140389995037768</v>
+        <v>0.1039959212926981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.26313166666666</v>
+        <v>13.54342266666667</v>
       </c>
       <c r="H4">
-        <v>42.78939499999999</v>
+        <v>40.630268</v>
       </c>
       <c r="I4">
-        <v>0.5507743869941781</v>
+        <v>0.5167929048707047</v>
       </c>
       <c r="J4">
-        <v>0.550774386994178</v>
+        <v>0.5167929048707047</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N4">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O4">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P4">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q4">
-        <v>909.0101577451277</v>
+        <v>849.4648411743013</v>
       </c>
       <c r="R4">
-        <v>8181.091419706149</v>
+        <v>7645.183570568713</v>
       </c>
       <c r="S4">
-        <v>0.1765184538154055</v>
+        <v>0.1584222415881142</v>
       </c>
       <c r="T4">
-        <v>0.1765184538154055</v>
+        <v>0.1584222415881142</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.26313166666666</v>
+        <v>13.54342266666667</v>
       </c>
       <c r="H5">
-        <v>42.78939499999999</v>
+        <v>40.630268</v>
       </c>
       <c r="I5">
-        <v>0.5507743869941781</v>
+        <v>0.5167929048707047</v>
       </c>
       <c r="J5">
-        <v>0.550774386994178</v>
+        <v>0.5167929048707047</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N5">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O5">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P5">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q5">
-        <v>206.5605745475555</v>
+        <v>191.641557050692</v>
       </c>
       <c r="R5">
-        <v>1859.045170928</v>
+        <v>1724.774013456228</v>
       </c>
       <c r="S5">
-        <v>0.04011149152480606</v>
+        <v>0.03574048457077634</v>
       </c>
       <c r="T5">
-        <v>0.04011149152480604</v>
+        <v>0.03574048457077635</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.26313166666666</v>
+        <v>13.54342266666667</v>
       </c>
       <c r="H6">
-        <v>42.78939499999999</v>
+        <v>40.630268</v>
       </c>
       <c r="I6">
-        <v>0.5507743869941781</v>
+        <v>0.5167929048707047</v>
       </c>
       <c r="J6">
-        <v>0.550774386994178</v>
+        <v>0.5167929048707047</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N6">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O6">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P6">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q6">
-        <v>946.6137252987434</v>
+        <v>906.8661235848261</v>
       </c>
       <c r="R6">
-        <v>8519.523527688689</v>
+        <v>8161.795112263436</v>
       </c>
       <c r="S6">
-        <v>0.1838205984019664</v>
+        <v>0.1691273813287262</v>
       </c>
       <c r="T6">
-        <v>0.1838205984019663</v>
+        <v>0.1691273813287262</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.814554333333333</v>
+        <v>6.814554333333334</v>
       </c>
       <c r="H7">
         <v>20.443663</v>
       </c>
       <c r="I7">
-        <v>0.2631457153516791</v>
+        <v>0.2600312650649449</v>
       </c>
       <c r="J7">
-        <v>0.2631457153516791</v>
+        <v>0.2600312650649448</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N7">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O7">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P7">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q7">
-        <v>89.27429846716254</v>
+        <v>133.5684246150259</v>
       </c>
       <c r="R7">
-        <v>803.4686862044629</v>
+        <v>1202.115821535233</v>
       </c>
       <c r="S7">
-        <v>0.01733595713602247</v>
+        <v>0.02491004713468017</v>
       </c>
       <c r="T7">
-        <v>0.01733595713602247</v>
+        <v>0.02491004713468016</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.814554333333333</v>
+        <v>6.814554333333334</v>
       </c>
       <c r="H8">
         <v>20.443663</v>
       </c>
       <c r="I8">
-        <v>0.2631457153516791</v>
+        <v>0.2600312650649449</v>
       </c>
       <c r="J8">
-        <v>0.2631457153516791</v>
+        <v>0.2600312650649448</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N8">
         <v>123.520313</v>
       </c>
       <c r="O8">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P8">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q8">
-        <v>280.5786280696132</v>
+        <v>280.5786280696133</v>
       </c>
       <c r="R8">
-        <v>2525.207652626518</v>
+        <v>2525.20765262652</v>
       </c>
       <c r="S8">
-        <v>0.05448487586030094</v>
+        <v>0.05232693932224236</v>
       </c>
       <c r="T8">
-        <v>0.05448487586030093</v>
+        <v>0.05232693932224235</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.814554333333333</v>
+        <v>6.814554333333334</v>
       </c>
       <c r="H9">
         <v>20.443663</v>
       </c>
       <c r="I9">
-        <v>0.2631457153516791</v>
+        <v>0.2600312650649449</v>
       </c>
       <c r="J9">
-        <v>0.2631457153516791</v>
+        <v>0.2600312650649448</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N9">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O9">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P9">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q9">
-        <v>434.3014741974789</v>
+        <v>427.4196011534047</v>
       </c>
       <c r="R9">
-        <v>3908.71326777731</v>
+        <v>3846.776410380643</v>
       </c>
       <c r="S9">
-        <v>0.08433593845117966</v>
+        <v>0.07971227063360722</v>
       </c>
       <c r="T9">
-        <v>0.08433593845117965</v>
+        <v>0.07971227063360721</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.814554333333333</v>
+        <v>6.814554333333334</v>
       </c>
       <c r="H10">
         <v>20.443663</v>
       </c>
       <c r="I10">
-        <v>0.2631457153516791</v>
+        <v>0.2600312650649449</v>
       </c>
       <c r="J10">
-        <v>0.2631457153516791</v>
+        <v>0.2600312650649448</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N10">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O10">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P10">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q10">
-        <v>98.68928446257776</v>
+        <v>96.42701370169701</v>
       </c>
       <c r="R10">
-        <v>888.2035601631998</v>
+        <v>867.843123315273</v>
       </c>
       <c r="S10">
-        <v>0.01916423018274718</v>
+        <v>0.01798330303953819</v>
       </c>
       <c r="T10">
-        <v>0.01916423018274718</v>
+        <v>0.01798330303953819</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.814554333333333</v>
+        <v>6.814554333333334</v>
       </c>
       <c r="H11">
         <v>20.443663</v>
       </c>
       <c r="I11">
-        <v>0.2631457153516791</v>
+        <v>0.2600312650649449</v>
       </c>
       <c r="J11">
-        <v>0.2631457153516791</v>
+        <v>0.2600312650649448</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N11">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O11">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P11">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q11">
-        <v>452.2674833608207</v>
+        <v>456.3018244596501</v>
       </c>
       <c r="R11">
-        <v>4070.407350247386</v>
+        <v>4106.716420136851</v>
       </c>
       <c r="S11">
-        <v>0.08782471372142885</v>
+        <v>0.08509870493487692</v>
       </c>
       <c r="T11">
-        <v>0.08782471372142883</v>
+        <v>0.08509870493487692</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4282683333333333</v>
+        <v>0.9151319999999999</v>
       </c>
       <c r="H12">
-        <v>1.284805</v>
+        <v>2.745396</v>
       </c>
       <c r="I12">
-        <v>0.01653768851562531</v>
+        <v>0.03491980840147087</v>
       </c>
       <c r="J12">
-        <v>0.01653768851562531</v>
+        <v>0.03491980840147087</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N12">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O12">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P12">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q12">
-        <v>5.610543719200555</v>
+        <v>17.937011516204</v>
       </c>
       <c r="R12">
-        <v>50.494893472805</v>
+        <v>161.433103645836</v>
       </c>
       <c r="S12">
-        <v>0.001089497728863333</v>
+        <v>0.003345190329314388</v>
       </c>
       <c r="T12">
-        <v>0.001089497728863333</v>
+        <v>0.003345190329314388</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4282683333333333</v>
+        <v>0.9151319999999999</v>
       </c>
       <c r="H13">
-        <v>1.284805</v>
+        <v>2.745396</v>
       </c>
       <c r="I13">
-        <v>0.01653768851562531</v>
+        <v>0.03491980840147087</v>
       </c>
       <c r="J13">
-        <v>0.01653768851562531</v>
+        <v>0.03491980840147087</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N13">
         <v>123.520313</v>
       </c>
       <c r="O13">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P13">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q13">
-        <v>17.63327952710722</v>
+        <v>37.679130358772</v>
       </c>
       <c r="R13">
-        <v>158.699515743965</v>
+        <v>339.1121732289481</v>
       </c>
       <c r="S13">
-        <v>0.003424163317977505</v>
+        <v>0.00702702690352149</v>
       </c>
       <c r="T13">
-        <v>0.003424163317977504</v>
+        <v>0.00702702690352149</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4282683333333333</v>
+        <v>0.9151319999999999</v>
       </c>
       <c r="H14">
-        <v>1.284805</v>
+        <v>2.745396</v>
       </c>
       <c r="I14">
-        <v>0.01653768851562531</v>
+        <v>0.03491980840147087</v>
       </c>
       <c r="J14">
-        <v>0.01653768851562531</v>
+        <v>0.03491980840147087</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N14">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O14">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P14">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q14">
-        <v>27.29416472753889</v>
+        <v>57.398523118296</v>
       </c>
       <c r="R14">
-        <v>245.64748254785</v>
+        <v>516.586708064664</v>
       </c>
       <c r="S14">
-        <v>0.005300186928427058</v>
+        <v>0.01070462514219798</v>
       </c>
       <c r="T14">
-        <v>0.005300186928427057</v>
+        <v>0.01070462514219798</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4282683333333333</v>
+        <v>0.9151319999999999</v>
       </c>
       <c r="H15">
-        <v>1.284805</v>
+        <v>2.745396</v>
       </c>
       <c r="I15">
-        <v>0.01653768851562531</v>
+        <v>0.03491980840147087</v>
       </c>
       <c r="J15">
-        <v>0.01653768851562531</v>
+        <v>0.03491980840147087</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N15">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O15">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P15">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q15">
-        <v>6.202239105777776</v>
+        <v>12.949261475724</v>
       </c>
       <c r="R15">
-        <v>55.820151952</v>
+        <v>116.543353281516</v>
       </c>
       <c r="S15">
-        <v>0.001204397605260099</v>
+        <v>0.002414992275676623</v>
       </c>
       <c r="T15">
-        <v>0.001204397605260099</v>
+        <v>0.002414992275676623</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4282683333333333</v>
+        <v>0.9151319999999999</v>
       </c>
       <c r="H16">
-        <v>1.284805</v>
+        <v>2.745396</v>
       </c>
       <c r="I16">
-        <v>0.01653768851562531</v>
+        <v>0.03491980840147087</v>
       </c>
       <c r="J16">
-        <v>0.01653768851562531</v>
+        <v>0.03491980840147087</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N16">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O16">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P16">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q16">
-        <v>28.42325878485667</v>
+        <v>61.27714019078799</v>
       </c>
       <c r="R16">
-        <v>255.80932906371</v>
+        <v>551.4942617170919</v>
       </c>
       <c r="S16">
-        <v>0.005519442935097315</v>
+        <v>0.01142797375076038</v>
       </c>
       <c r="T16">
-        <v>0.005519442935097314</v>
+        <v>0.01142797375076039</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.000460666666666</v>
+        <v>3.992287</v>
       </c>
       <c r="H17">
-        <v>12.001382</v>
+        <v>11.976861</v>
       </c>
       <c r="I17">
-        <v>0.1544787864874688</v>
+        <v>0.1523385665933253</v>
       </c>
       <c r="J17">
-        <v>0.1544787864874688</v>
+        <v>0.1523385665933253</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N17">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O17">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P17">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q17">
-        <v>52.40816964584243</v>
+        <v>78.25067629040566</v>
       </c>
       <c r="R17">
-        <v>471.6735268125819</v>
+        <v>704.256086613651</v>
       </c>
       <c r="S17">
-        <v>0.01017701396882895</v>
+        <v>0.01459347926227861</v>
       </c>
       <c r="T17">
-        <v>0.01017701396882895</v>
+        <v>0.01459347926227861</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.000460666666666</v>
+        <v>3.992287</v>
       </c>
       <c r="H18">
-        <v>12.001382</v>
+        <v>11.976861</v>
       </c>
       <c r="I18">
-        <v>0.1544787864874688</v>
+        <v>0.1523385665933253</v>
       </c>
       <c r="J18">
-        <v>0.1544787864874688</v>
+        <v>0.1523385665933253</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N18">
         <v>123.520313</v>
       </c>
       <c r="O18">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P18">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q18">
-        <v>164.7127178969517</v>
+        <v>164.3761799419437</v>
       </c>
       <c r="R18">
-        <v>1482.414461072566</v>
+        <v>1479.385619477493</v>
       </c>
       <c r="S18">
-        <v>0.03198515884467722</v>
+        <v>0.03065558646794025</v>
       </c>
       <c r="T18">
-        <v>0.0319851588446772</v>
+        <v>0.03065558646794025</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.000460666666666</v>
+        <v>3.992287</v>
       </c>
       <c r="H19">
-        <v>12.001382</v>
+        <v>11.976861</v>
       </c>
       <c r="I19">
-        <v>0.1544787864874688</v>
+        <v>0.1523385665933253</v>
       </c>
       <c r="J19">
-        <v>0.1544787864874688</v>
+        <v>0.1523385665933253</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N19">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O19">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P19">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q19">
-        <v>254.9551856243711</v>
+        <v>250.402540468886</v>
       </c>
       <c r="R19">
-        <v>2294.59667061934</v>
+        <v>2253.622864219974</v>
       </c>
       <c r="S19">
-        <v>0.04950912239558516</v>
+        <v>0.04669920382531719</v>
       </c>
       <c r="T19">
-        <v>0.04950912239558514</v>
+        <v>0.04669920382531719</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.000460666666666</v>
+        <v>3.992287</v>
       </c>
       <c r="H20">
-        <v>12.001382</v>
+        <v>11.976861</v>
       </c>
       <c r="I20">
-        <v>0.1544787864874688</v>
+        <v>0.1523385665933253</v>
       </c>
       <c r="J20">
-        <v>0.1544787864874688</v>
+        <v>0.1523385665933253</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N20">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O20">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P20">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q20">
-        <v>57.93520476942221</v>
+        <v>56.491487839059</v>
       </c>
       <c r="R20">
-        <v>521.4168429248</v>
+        <v>508.423390551531</v>
       </c>
       <c r="S20">
-        <v>0.01125029536825562</v>
+        <v>0.01053546621392782</v>
       </c>
       <c r="T20">
-        <v>0.01125029536825561</v>
+        <v>0.01053546621392783</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.000460666666666</v>
+        <v>3.992287</v>
       </c>
       <c r="H21">
-        <v>12.001382</v>
+        <v>11.976861</v>
       </c>
       <c r="I21">
-        <v>0.1544787864874688</v>
+        <v>0.1523385665933253</v>
       </c>
       <c r="J21">
-        <v>0.1544787864874688</v>
+        <v>0.1523385665933253</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N21">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O21">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P21">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q21">
-        <v>265.5020694672893</v>
+        <v>267.3231076837663</v>
       </c>
       <c r="R21">
-        <v>2389.518625205604</v>
+        <v>2405.907969153897</v>
       </c>
       <c r="S21">
-        <v>0.05155719591012185</v>
+        <v>0.04985483082386139</v>
       </c>
       <c r="T21">
-        <v>0.05155719591012183</v>
+        <v>0.0498548308238614</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.39009</v>
+        <v>0.9412769999999999</v>
       </c>
       <c r="H22">
-        <v>1.17027</v>
+        <v>2.823831</v>
       </c>
       <c r="I22">
-        <v>0.01506342265104886</v>
+        <v>0.03591745506955423</v>
       </c>
       <c r="J22">
-        <v>0.01506342265104886</v>
+        <v>0.03591745506955423</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N22">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O22">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P22">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q22">
-        <v>5.11038717803</v>
+        <v>18.449465638769</v>
       </c>
       <c r="R22">
-        <v>45.99348460227</v>
+        <v>166.045190748921</v>
       </c>
       <c r="S22">
-        <v>0.0009923735564205409</v>
+        <v>0.003440761242756301</v>
       </c>
       <c r="T22">
-        <v>0.0009923735564205407</v>
+        <v>0.003440761242756301</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.39009</v>
+        <v>0.9412769999999999</v>
       </c>
       <c r="H23">
-        <v>1.17027</v>
+        <v>2.823831</v>
       </c>
       <c r="I23">
-        <v>0.01506342265104886</v>
+        <v>0.03591745506955423</v>
       </c>
       <c r="J23">
-        <v>0.01506342265104886</v>
+        <v>0.03591745506955423</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N23">
         <v>123.520313</v>
       </c>
       <c r="O23">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P23">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q23">
-        <v>16.06134629939</v>
+        <v>38.755609886567</v>
       </c>
       <c r="R23">
-        <v>144.55211669451</v>
+        <v>348.800488979103</v>
       </c>
       <c r="S23">
-        <v>0.00311891345856339</v>
+        <v>0.007227786595448523</v>
       </c>
       <c r="T23">
-        <v>0.003118913458563389</v>
+        <v>0.007227786595448523</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.39009</v>
+        <v>0.9412769999999999</v>
       </c>
       <c r="H24">
-        <v>1.17027</v>
+        <v>2.823831</v>
       </c>
       <c r="I24">
-        <v>0.01506342265104886</v>
+        <v>0.03591745506955423</v>
       </c>
       <c r="J24">
-        <v>0.01506342265104886</v>
+        <v>0.03591745506955423</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N24">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O24">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P24">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q24">
-        <v>24.8610039311</v>
+        <v>59.038378775106</v>
       </c>
       <c r="R24">
-        <v>223.7490353799001</v>
+        <v>531.345408975954</v>
       </c>
       <c r="S24">
-        <v>0.004827697399006336</v>
+        <v>0.01101045252485182</v>
       </c>
       <c r="T24">
-        <v>0.004827697399006335</v>
+        <v>0.01101045252485182</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.39009</v>
+        <v>0.9412769999999999</v>
       </c>
       <c r="H25">
-        <v>1.17027</v>
+        <v>2.823831</v>
       </c>
       <c r="I25">
-        <v>0.01506342265104886</v>
+        <v>0.03591745506955423</v>
       </c>
       <c r="J25">
-        <v>0.01506342265104886</v>
+        <v>0.03591745506955423</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N25">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O25">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P25">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q25">
-        <v>5.649335392</v>
+        <v>13.319217330489</v>
       </c>
       <c r="R25">
-        <v>50.844018528</v>
+        <v>119.872955974401</v>
       </c>
       <c r="S25">
-        <v>0.001097030588694577</v>
+        <v>0.002483987757254762</v>
       </c>
       <c r="T25">
-        <v>0.001097030588694577</v>
+        <v>0.002483987757254762</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.39009</v>
+        <v>0.9412769999999999</v>
       </c>
       <c r="H26">
-        <v>1.17027</v>
+        <v>2.823831</v>
       </c>
       <c r="I26">
-        <v>0.01506342265104886</v>
+        <v>0.03591745506955423</v>
       </c>
       <c r="J26">
-        <v>0.01506342265104886</v>
+        <v>0.03591745506955423</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N26">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O26">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P26">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q26">
-        <v>25.88944396866001</v>
+        <v>63.02780657584299</v>
       </c>
       <c r="R26">
-        <v>233.0049957179401</v>
+        <v>567.2502591825869</v>
       </c>
       <c r="S26">
-        <v>0.005027407648364022</v>
+        <v>0.01175446694924282</v>
       </c>
       <c r="T26">
-        <v>0.005027407648364021</v>
+        <v>0.01175446694924282</v>
       </c>
     </row>
   </sheetData>
